--- a/parabolic/2025/08/06/parabolic.xlsx
+++ b/parabolic/2025/08/06/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>751.4000244140625</v>
+        <v>637</v>
       </c>
       <c r="D2" t="n">
-        <v>1235600</v>
+        <v>120000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>7383</t>
+          <t>335A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>768</v>
+        <v>646</v>
       </c>
       <c r="D3" t="n">
-        <v>232200</v>
+        <v>110600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>8920</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,16 +528,154 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>723</v>
+        <v>251</v>
       </c>
       <c r="D4" t="n">
-        <v>206900</v>
+        <v>124900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>3861</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>756.9000244140625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2381300</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5535</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>978</v>
+      </c>
+      <c r="D6" t="n">
+        <v>165700</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6325</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>425</v>
+      </c>
+      <c r="D7" t="n">
+        <v>321400</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7383</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>770</v>
+      </c>
+      <c r="D8" t="n">
+        <v>366300</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8508</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>462</v>
+      </c>
+      <c r="D9" t="n">
+        <v>167300</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>8920</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>717</v>
+      </c>
+      <c r="D10" t="n">
+        <v>276900</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/06/parabolic.xlsx
+++ b/parabolic/2025/08/06/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D2" t="n">
-        <v>120000</v>
+        <v>136200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D3" t="n">
-        <v>110600</v>
+        <v>120200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>124900</v>
+        <v>146100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>756.9000244140625</v>
+        <v>191</v>
       </c>
       <c r="D5" t="n">
-        <v>2381300</v>
+        <v>18253500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>978</v>
+        <v>756.2000122070312</v>
       </c>
       <c r="D6" t="n">
-        <v>165700</v>
+        <v>3222200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6325</t>
+          <t>4997</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>425</v>
+        <v>914</v>
       </c>
       <c r="D7" t="n">
-        <v>321400</v>
+        <v>112900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7383</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>770</v>
+        <v>977</v>
       </c>
       <c r="D8" t="n">
-        <v>366300</v>
+        <v>225100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8508</t>
+          <t>6325</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="D9" t="n">
-        <v>167300</v>
+        <v>448900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8920</t>
+          <t>7383</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,62 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>717</v>
+        <v>781</v>
       </c>
       <c r="D10" t="n">
-        <v>276900</v>
+        <v>759000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8508</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>218200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8920</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>719</v>
+      </c>
+      <c r="D12" t="n">
+        <v>333600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/06/parabolic.xlsx
+++ b/parabolic/2025/08/06/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>196A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>632</v>
+        <v>471</v>
       </c>
       <c r="D2" t="n">
-        <v>136200</v>
+        <v>113200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>335A</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D3" t="n">
-        <v>120200</v>
+        <v>157500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>335A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>254</v>
+        <v>652</v>
       </c>
       <c r="D4" t="n">
-        <v>146100</v>
+        <v>171900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="D5" t="n">
-        <v>18253500</v>
+        <v>168600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>756.2000122070312</v>
+        <v>178</v>
       </c>
       <c r="D6" t="n">
-        <v>3222200</v>
+        <v>27442800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4997</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>914</v>
+        <v>759.7999877929688</v>
       </c>
       <c r="D7" t="n">
-        <v>112900</v>
+        <v>5007700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>977</v>
+        <v>727</v>
       </c>
       <c r="D8" t="n">
-        <v>225100</v>
+        <v>151000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6325</t>
+          <t>4591</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>418</v>
+        <v>105</v>
       </c>
       <c r="D9" t="n">
-        <v>448900</v>
+        <v>948000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7383</t>
+          <t>4997</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>781</v>
+        <v>922</v>
       </c>
       <c r="D10" t="n">
-        <v>759000</v>
+        <v>207700</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8508</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>462</v>
+        <v>990</v>
       </c>
       <c r="D11" t="n">
-        <v>218200</v>
+        <v>290500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8920</t>
+          <t>6091</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,108 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D12" t="n">
-        <v>333600</v>
+        <v>160800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>6325</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>424</v>
+      </c>
+      <c r="D13" t="n">
+        <v>510800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7383</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>785</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1018500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8508</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>465</v>
+      </c>
+      <c r="D15" t="n">
+        <v>283100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8920</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>715</v>
+      </c>
+      <c r="D16" t="n">
+        <v>391900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
